--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS LAKSHMI\Documents\DevSecOps\src\zdt-manager-src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEED7C3A-F951-4C43-A043-C543F786164D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6F7998-F371-415F-B7E1-E6441004F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FF642BF-C88A-4981-B434-E25CE7310D65}"/>
   </bookViews>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,63 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS LAKSHMI\Documents\DevSecOps\src\zdt-manager-src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6F7998-F371-415F-B7E1-E6441004F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FF642BF-C88A-4981-B434-E25CE7310D65}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -390,41 +419,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB5C185-C768-4AA4-8C90-4451765C3B89}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS LAKSHMI\Documents\DevSecOps\src\zdt-manager-src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6F7998-F371-415F-B7E1-E6441004F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FF642BF-C88A-4981-B434-E25CE7310D65}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +76,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,83 +390,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB5C185-C768-4AA4-8C90-4451765C3B89}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,58 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C85106F-6D19-4AC2-9D6A-6AB8552C3831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -373,50 +407,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,81 +65,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -128,10 +92,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -169,71 +133,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -261,7 +225,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -284,11 +248,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -297,13 +261,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +277,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +286,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,7 +295,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,10 +303,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -407,89 +371,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,53 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>release/1.0.0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -371,48 +413,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E9FD4-173E-4741-AC9C-FBA97A4DB012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,87 +70,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -134,10 +94,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -175,71 +135,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -267,7 +227,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -290,11 +250,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -303,13 +263,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -319,7 +279,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -328,7 +288,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -337,7 +297,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -345,10 +305,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -413,89 +373,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,58 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E9FD4-173E-4741-AC9C-FBA97A4DB012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>release/1.0.0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -373,50 +407,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E9FD4-173E-4741-AC9C-FBA97A4DB012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +71,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,89 +373,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.0.1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E9FD4-173E-4741-AC9C-FBA97A4DB012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +71,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,89 +373,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,58 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E9FD4-173E-4741-AC9C-FBA97A4DB012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>release/1.0.0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -373,50 +407,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E9FD4-173E-4741-AC9C-FBA97A4DB012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +71,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,89 +373,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.0.2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E9FD4-173E-4741-AC9C-FBA97A4DB012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +71,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,89 +373,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,81 +65,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -128,10 +92,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -169,71 +133,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -261,7 +225,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -284,11 +248,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -297,13 +261,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +277,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +286,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,7 +295,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,10 +303,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -407,89 +371,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,53 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>release/1.0.0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -371,48 +413,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.0.2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,86 +66,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,89 +371,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E9FD4-173E-4741-AC9C-FBA97A4DB012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,87 +70,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -134,10 +94,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -175,71 +135,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -267,7 +227,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -290,11 +250,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -303,13 +263,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -319,7 +279,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -328,7 +288,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -337,7 +297,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -345,10 +305,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -413,89 +373,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD78F8B7-8324-493C-BEB8-64158C642E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +71,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,89 +373,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,58 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD78F8B7-8324-493C-BEB8-64158C642E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -373,50 +407,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.0.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD78F8B7-8324-493C-BEB8-64158C642E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +71,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,89 +373,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -492,6 +492,28 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.0.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -514,6 +514,28 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.0.2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.0.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4201521-2D09-4EB6-9483-9A8D42D556EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>release/1.0.1</t>
+  </si>
+  <si>
+    <t>release/1.0.2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +89,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,133 +391,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,76 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4201521-2D09-4EB6-9483-9A8D42D556EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>mig</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>release/1.0.0</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/1.0.1</t>
-  </si>
-  <si>
-    <t>release/1.0.2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -391,9 +407,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -401,112 +418,172 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mig</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -586,6 +586,38 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>release/1.0.3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.0.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDF2512-CB3C-4C21-A3B1-820BBFF53EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>release/1.0.1</t>
+  </si>
+  <si>
+    <t>release/1.0.2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +89,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,215 +391,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mig</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,76 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDF2512-CB3C-4C21-A3B1-820BBFF53EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>mig</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>release/1.0.0</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/1.0.1</t>
-  </si>
-  <si>
-    <t>release/1.0.2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -391,122 +407,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mig</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>release/1.0.3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDF2512-CB3C-4C21-A3B1-820BBFF53EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>release/1.0.1</t>
+  </si>
+  <si>
+    <t>release/1.0.2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +89,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,215 +391,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mig</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.0.3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BDEBDA-090B-479F-A4D9-1136548FD7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>release/1.0.1</t>
+  </si>
+  <si>
+    <t>release/1.0.2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +89,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,215 +391,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mig</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,76 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BDEBDA-090B-479F-A4D9-1136548FD7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>mig</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>release/1.0.0</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/1.0.1</t>
-  </si>
-  <si>
-    <t>release/1.0.2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -391,122 +407,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mig</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>release/1.0.3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BDEBDA-090B-479F-A4D9-1136548FD7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>release/1.0.1</t>
+  </si>
+  <si>
+    <t>release/1.0.2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +89,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,215 +391,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mig</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.0.3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3210" yWindow="3210" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +71,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,215 +370,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mig</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,58 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="3210" windowWidth="17280" windowHeight="8880"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3210" yWindow="3210" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>mig</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,18 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -370,62 +407,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mig</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.0.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -522,6 +522,38 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.0.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -554,6 +554,38 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE7F36E-6056-4493-98B8-307BE2E953B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3210" yWindow="3210" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>release/1.0.0</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +83,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,183 +385,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mig</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,70 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE7F36E-6056-4493-98B8-307BE2E953B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>mig</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>release/1.0.0</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -83,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,82 +407,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mig</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/1.0.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/1.1.0</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.1.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -554,6 +554,38 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/1.1.1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.1.1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90002F0D-BA39-462A-9A9D-AF1731D57EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3468" yWindow="3096" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>release/1.0.1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +83,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,183 +385,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mig</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.1.0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/1.1.0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>release/1.1.1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>release/1.1.1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,70 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90002F0D-BA39-462A-9A9D-AF1731D57EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3468" yWindow="3096" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3468" yWindow="3096" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>mig</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/1.0.1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -83,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,82 +407,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mig</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532FAA26-B709-467F-AD23-119AEA00F0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3468" yWindow="3096" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>release/1.0.1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +83,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,151 +385,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mig</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,70 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532FAA26-B709-467F-AD23-119AEA00F0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>mig</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/1.0.1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -83,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,82 +407,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mig</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B02002B-EA7A-48BD-B429-0CFB1EBCD09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>release/1.0.1</t>
+  </si>
+  <si>
+    <t>release/1.0.2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +86,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,151 +388,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mig</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,73 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B02002B-EA7A-48BD-B429-0CFB1EBCD09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>mig</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/1.0.1</t>
-  </si>
-  <si>
-    <t>release/1.0.2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,102 +407,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mig</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/1.0.3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/1.0.3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DDEF6E-A8A7-482D-A68F-16D071BF322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>release/1.0.1</t>
+  </si>
+  <si>
+    <t>release/1.0.2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +86,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,183 +388,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mig</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,73 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DDEF6E-A8A7-482D-A68F-16D071BF322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>mig</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/1.0.1</t>
-  </si>
-  <si>
-    <t>release/1.0.2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,102 +407,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mig</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/release/1.0.3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DDEF6E-A8A7-482D-A68F-16D071BF322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>release/1.0.1</t>
+  </si>
+  <si>
+    <t>release/1.0.2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +86,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,183 +388,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mig</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>release/release/1.0.3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,73 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DDEF6E-A8A7-482D-A68F-16D071BF322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>mig</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/1.0.1</t>
-  </si>
-  <si>
-    <t>release/1.0.2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,102 +407,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mig</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/1.0.3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -586,6 +586,38 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>release/1.0.4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C85E4B1-8DDE-4E64-BE6F-D0868E5C41A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>release/1.0.1</t>
+  </si>
+  <si>
+    <t>release/1.0.2</t>
+  </si>
+  <si>
+    <t>release/1.0.3</t>
+  </si>
+  <si>
+    <t>release/1.0.4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,81 +91,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,215 +395,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mig</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>release/1.0.4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,79 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C85E4B1-8DDE-4E64-BE6F-D0868E5C41A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>mig</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/1.0.1</t>
-  </si>
-  <si>
-    <t>release/1.0.2</t>
-  </si>
-  <si>
-    <t>release/1.0.3</t>
-  </si>
-  <si>
-    <t>release/1.0.4</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,22 +46,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -395,142 +408,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mig</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1" s="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/1.0.1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>release/1.0.2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/1.0.3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>release/1.0.3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>release/1.0.4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>release/1.0.4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>release/1.0.5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS LAKSHMI\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBBA813-B172-4C40-90C8-553C1574CAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,82 +70,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,247 +373,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mig</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/1.0.1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/1.0.2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>release/1.0.3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>release/1.0.4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>release/1.0.4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>release/1.0.5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,58 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS LAKSHMI\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBBA813-B172-4C40-90C8-553C1574CAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -373,50 +407,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.36328125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.90625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.453125" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/6.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/6.0.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS LAKSHMI\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBBA813-B172-4C40-90C8-553C1574CAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +71,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,89 +373,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.36328125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.90625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.453125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/6.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/6.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,58 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS LAKSHMI\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBBA813-B172-4C40-90C8-553C1574CAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -373,50 +407,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.36328125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.90625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.453125" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.0</t>
         </is>
       </c>
     </row>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -492,6 +492,28 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/8.0.2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -514,6 +514,28 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/8.0.3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC671046-AC9E-4286-9CBF-3675618CAED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>release/8.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,81 +76,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,133 +380,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.36328125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.90625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="17.453125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/8.0.2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/8.0.2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>release/8.0.3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,64 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC671046-AC9E-4286-9CBF-3675618CAED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>release/8.0.0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,22 +46,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -380,74 +408,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12.33203125" customWidth="1" style="1" min="4" max="4"/>
+    <col width="17.33203125" customWidth="1" style="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1" s="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC671046-AC9E-4286-9CBF-3675618CAED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>release/8.0.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +77,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,132 +380,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="12.33203125" customWidth="1" style="1" min="4" max="4"/>
-    <col width="17.33203125" customWidth="1" style="1" min="5" max="5"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/8.0.1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/8.0.1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5909B530-D6D9-467A-8E28-4C671E3BEF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,82 +73,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,132 +376,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="12.33203125" customWidth="1" style="1" min="4" max="4"/>
-    <col width="17.33203125" customWidth="1" style="1" min="5" max="5"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>release/8.0.1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>release/8.0.1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,61 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5909B530-D6D9-467A-8E28-4C671E3BEF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,57 +407,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12.33203125" customWidth="1" min="4" max="4"/>
+    <col width="17.33203125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5909B530-D6D9-467A-8E28-4C671E3BEF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +74,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,105 +376,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="12.33203125" customWidth="1" min="4" max="4"/>
-    <col width="17.33203125" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,33 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA62E9-9219-4C0E-97A4-22011C807D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>pre-prod</t>
+  </si>
+  <si>
+    <t>release/8.0.0</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +80,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,105 +382,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="12.33203125" customWidth="1" min="4" max="4"/>
-    <col width="17.33203125" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uat</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>pre-prod</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>prod</t>
-        </is>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>release/8.0.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,67 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA62E9-9219-4C0E-97A4-22011C807D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>release/8.0.0</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,9 +407,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -392,64 +418,94 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12.33203125" customWidth="1" min="4" max="4"/>
+    <col width="17.33203125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -508,6 +508,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -535,6 +535,33 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/8.0.2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,70 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS LAKSHMI\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE2E3D5-EAC9-4546-9E2A-997E7926E37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="10890" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="760" yWindow="760" windowWidth="10890" windowHeight="7270" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>release/8.0.0</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/8.0.1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -83,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,91 +407,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.36328125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.90625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12.36328125" customWidth="1" min="4" max="4"/>
+    <col width="17.36328125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/8.0.2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -562,6 +562,33 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>release/8.0.3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -589,6 +589,33 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>release/8.0.4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -597,7 +597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -616,6 +616,33 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -643,6 +643,33 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -651,7 +651,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -670,6 +670,33 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>release/8.0.7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -678,7 +678,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -697,6 +697,33 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>release/8.0.8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,83 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="15">
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>release/8.0.0</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/8.0.1</t>
-  </si>
-  <si>
-    <t>release/8.0.2</t>
-  </si>
-  <si>
-    <t>release/8.0.3</t>
-  </si>
-  <si>
-    <t>release/8.0.4</t>
-  </si>
-  <si>
-    <t>release/8.0.5</t>
-  </si>
-  <si>
-    <t>release/8.0.6</t>
-  </si>
-  <si>
-    <t>release/8.0.7</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -401,191 +413,321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col width="15.005" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="19.86214285714286" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="17.43357142857143" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.2</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.2</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.3</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.3</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.4</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.4</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="17.25" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="17.25" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.7</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>release/8.0.7</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>release/8.0.8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,6 +730,33 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>release/8.0.9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,91 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB06F2A-001A-43E1-984E-7B3E5CFC98F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>release/8.0.0</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/8.0.1</t>
-  </si>
-  <si>
-    <t>release/8.0.2</t>
-  </si>
-  <si>
-    <t>release/8.0.3</t>
-  </si>
-  <si>
-    <t>release/8.0.4</t>
-  </si>
-  <si>
-    <t>release/8.0.5</t>
-  </si>
-  <si>
-    <t>release/8.0.6</t>
-  </si>
-  <si>
-    <t>release/8.0.7</t>
-  </si>
-  <si>
-    <t>release/8.0.8</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -104,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,210 +407,348 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.41796875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.83984375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12.41796875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="17.41796875" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/8.0.2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>release/8.0.2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>release/8.0.3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>release/8.0.3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>release/8.0.4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>release/8.0.4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="17.25" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="17.25" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>release/8.0.7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>release/8.0.7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>release/8.0.8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>release/8.0.8</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>release/8.0.9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -732,7 +732,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
@@ -751,6 +751,33 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>release/8.0.10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,94 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E5F456-2589-4E86-84AC-A4AFCA915565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>release/8.0.0</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/8.0.1</t>
-  </si>
-  <si>
-    <t>release/8.0.2</t>
-  </si>
-  <si>
-    <t>release/8.0.3</t>
-  </si>
-  <si>
-    <t>release/8.0.4</t>
-  </si>
-  <si>
-    <t>release/8.0.5</t>
-  </si>
-  <si>
-    <t>release/8.0.6</t>
-  </si>
-  <si>
-    <t>release/8.0.7</t>
-  </si>
-  <si>
-    <t>release/8.0.8</t>
-  </si>
-  <si>
-    <t>release/8.0.9</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -107,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,227 +407,375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.41796875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.83984375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12.41796875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="17.41796875" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/8.0.2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>release/8.0.2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>release/8.0.3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>release/8.0.3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>release/8.0.4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>release/8.0.4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="17.25" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="17.25" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>release/8.0.7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>release/8.0.7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>release/8.0.8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>release/8.0.8</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>release/8.0.9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>release/8.0.9</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>release/8.0.10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,94 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS LAKSHMI\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF76B60-365B-44F4-ACC8-4F26097024F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="980" windowWidth="11670" windowHeight="8560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7280" yWindow="980" windowWidth="11670" windowHeight="8560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>release/8.0.0</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/8.0.1</t>
-  </si>
-  <si>
-    <t>release/8.0.2</t>
-  </si>
-  <si>
-    <t>release/8.0.3</t>
-  </si>
-  <si>
-    <t>release/8.0.4</t>
-  </si>
-  <si>
-    <t>release/8.0.5</t>
-  </si>
-  <si>
-    <t>release/8.0.6</t>
-  </si>
-  <si>
-    <t>release/8.0.7</t>
-  </si>
-  <si>
-    <t>release/8.0.8</t>
-  </si>
-  <si>
-    <t>release/8.0.9</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -107,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,227 +407,375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.453125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.81640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12.453125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="17.453125" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/8.0.2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>release/8.0.2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>release/8.0.3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>release/8.0.3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>release/8.0.4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>release/8.0.4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="17.25" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="17.25" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>release/8.0.7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>release/8.0.7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>release/8.0.8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>release/8.0.8</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>release/8.0.9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>release/8.0.9</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>release/8.0.11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -1,94 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS LAKSHMI\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3713D945-E0B9-45D2-8547-3A247F15987C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>sit</t>
-  </si>
-  <si>
-    <t>uat</t>
-  </si>
-  <si>
-    <t>pre-prod</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>release/8.0.0</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>release/8.0.1</t>
-  </si>
-  <si>
-    <t>release/8.0.2</t>
-  </si>
-  <si>
-    <t>release/8.0.3</t>
-  </si>
-  <si>
-    <t>release/8.0.4</t>
-  </si>
-  <si>
-    <t>release/8.0.5</t>
-  </si>
-  <si>
-    <t>release/8.0.6</t>
-  </si>
-  <si>
-    <t>release/8.0.7</t>
-  </si>
-  <si>
-    <t>release/8.0.8</t>
-  </si>
-  <si>
-    <t>release/8.0.9</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -107,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,227 +407,375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.453125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.81640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12.453125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="17.453125" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>pre-prod</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>release/8.0.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>release/8.0.1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>release/8.0.2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>release/8.0.2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>release/8.0.3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>release/8.0.3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>release/8.0.4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>release/8.0.4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="17.25" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>release/8.0.5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>release/8.0.6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="17.25" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>release/8.0.7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>release/8.0.7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>release/8.0.8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>release/8.0.8</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>release/8.0.9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>release/8.0.9</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>release/8.0.10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -759,7 +759,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
@@ -778,6 +778,33 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>release/8.0.11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -786,7 +786,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -791,7 +791,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.11</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -796,7 +796,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -805,6 +805,33 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>release/release/8.0.12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -813,7 +813,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/release/8.0.12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -840,7 +840,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -859,6 +859,33 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>release/8.0.14</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -867,7 +867,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -886,6 +886,33 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>release/8.0.15</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -894,7 +894,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.15</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -913,6 +913,33 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>release/8.0.16</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -921,7 +921,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -927,7 +927,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.16-hf</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,6 +946,33 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>release/8.0.17</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -927,7 +927,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">

--- a/meta-sheet.xlsx
+++ b/meta-sheet.xlsx
@@ -954,7 +954,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>release/8.0.17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
